--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 1 variable 7.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 1 variable 7.xlsx_with_dialog_acts.xlsx
@@ -543,12 +543,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -615,12 +615,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1227,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1595,12 +1595,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2099,12 +2099,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2639,12 +2639,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2927,12 +2927,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4515,12 +4515,12 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4551,12 +4551,12 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4767,12 +4767,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4911,12 +4911,12 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5199,12 +5199,12 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5235,12 +5235,12 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5527,12 +5527,12 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5743,12 +5743,12 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5851,12 +5851,12 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6395,12 +6395,12 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6503,12 +6503,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6969,12 +6969,12 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7221,12 +7221,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8119,12 +8119,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8299,12 +8299,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8443,12 +8443,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8515,12 +8515,12 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
